--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_2_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_2_20.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1122992.942552462</v>
+        <v>1090569.222288338</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189902.9539564197</v>
+        <v>189902.9539564198</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728817</v>
+        <v>9102620.618728807</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11.39108932486009</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>329.6586928752346</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,22 +704,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -738,7 +738,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>172.7084989883154</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -801,7 +801,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034773</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>155.3197306044664</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>9.27559683049698</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -896,13 +896,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.5878761001678</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>142.9777266703274</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>18.3768222575565</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1069,13 +1069,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>73.31370764131945</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>61.4954412004503</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>158.9897392454093</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1190,16 +1190,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1263,7 +1263,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T9" t="n">
-        <v>196.8897623984489</v>
+        <v>196.8897623984484</v>
       </c>
       <c r="U9" t="n">
         <v>225.8879277888686</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>99.34508049624269</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>45.199959188537</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -1342,10 +1342,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>38.39834678541102</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1385,7 +1385,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1415,16 +1415,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>24.25641376481833</v>
       </c>
       <c r="S11" t="n">
-        <v>149.3982268499442</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1546,10 +1546,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>9.275596830496854</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,19 +1570,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>156.127162662147</v>
       </c>
       <c r="T13" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,19 +1652,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>94.33281767990162</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>201.7691508349524</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1777,16 +1777,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>155.3197306044667</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,19 +1807,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>156.127162662147</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>401.3550844723781</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>99.37803318259425</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,13 +1889,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>76.48464164091926</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2059,16 +2059,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>128.7835007017902</v>
       </c>
     </row>
     <row r="20">
@@ -2078,10 +2078,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2096,10 +2096,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>311.4936872159398</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2135,13 +2135,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>234.4053629237966</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>43.99240337009277</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>74.09260911231073</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
         <v>225.0351054580843</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2330,10 +2330,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2369,10 +2369,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>194.8806712903671</v>
+        <v>81.12200652863734</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>28.44734925172055</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>83.59830597394803</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>323.9918595228954</v>
+        <v>396.6749956049798</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2615,10 +2615,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2722,13 +2722,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>9.790440613649634</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2764,19 +2764,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2795,16 +2795,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>376.1848636439243</v>
       </c>
       <c r="G29" t="n">
-        <v>323.9918595228954</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>115.9118647420295</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2998,13 +2998,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>83.59830597394826</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>270.6226856612333</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>219.7130816251285</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3044,7 +3044,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -3074,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -3083,13 +3083,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3184,19 +3184,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>25.31590541686196</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3238,16 +3238,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>23.02457248166897</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>261.9380356950998</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3311,28 +3311,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>28.92900240760932</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3424,10 +3424,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3466,13 +3466,13 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>175.7939063102968</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3481,13 +3481,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>128.7835007017899</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3509,16 +3509,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>401.3550844723781</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>81.12200652863734</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3718,16 +3718,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>155.211488636581</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>50.05665370612845</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>275.4805812731082</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3752,10 +3752,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>365.3419785295462</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3837,7 +3837,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,22 +3895,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>37.83808333974886</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3961,10 +3961,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>101.7806877295492</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3977,25 +3977,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>23.48692950433955</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4034,13 +4034,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>114.8791903675471</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4074,7 +4074,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>11.00429467105828</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4144,13 +4144,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>140.1425501084456</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>534.603677789272</v>
+        <v>1215.881273373638</v>
       </c>
       <c r="C2" t="n">
-        <v>534.603677789272</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D2" t="n">
-        <v>534.603677789272</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E2" t="n">
-        <v>534.603677789272</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>534.603677789272</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1992.620445413572</v>
       </c>
       <c r="Y2" t="n">
-        <v>546.109828622464</v>
+        <v>1602.48111343776</v>
       </c>
     </row>
     <row r="3">
@@ -4383,7 +4383,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
         <v>814.0449459359563</v>
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>393.6767897220518</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="C4" t="n">
-        <v>393.6767897220518</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D4" t="n">
-        <v>393.6767897220518</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E4" t="n">
-        <v>393.6767897220518</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F4" t="n">
-        <v>393.6767897220518</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220518</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>393.6767897220518</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T4" t="n">
-        <v>393.6767897220518</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="U4" t="n">
-        <v>393.6767897220518</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="V4" t="n">
-        <v>393.6767897220518</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="W4" t="n">
-        <v>393.6767897220518</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="X4" t="n">
-        <v>393.6767897220518</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="Y4" t="n">
-        <v>393.6767897220518</v>
+        <v>99.5995062532301</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>464.928886609972</v>
+        <v>1336.435086552838</v>
       </c>
       <c r="C5" t="n">
-        <v>464.928886609972</v>
+        <v>967.4725696124262</v>
       </c>
       <c r="D5" t="n">
-        <v>464.928886609972</v>
+        <v>967.4725696124262</v>
       </c>
       <c r="E5" t="n">
-        <v>464.928886609972</v>
+        <v>581.6843170141819</v>
       </c>
       <c r="F5" t="n">
-        <v>53.94298182036445</v>
+        <v>170.6984122245744</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>170.6984122245744</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>170.6984122245744</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2552.727144886579</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2298.96535952467</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>1967.902472181099</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>1615.133816910985</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X5" t="n">
-        <v>1241.668058649906</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="Y5" t="n">
-        <v>851.5287266740938</v>
+        <v>1723.03492661696</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4644,16 +4644,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4708,19 +4708,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="E7" t="n">
-        <v>580.2158906240411</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F7" t="n">
-        <v>433.3259431261307</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G7" t="n">
-        <v>264.3261428644631</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2169.72394915887</v>
+        <v>214.5386780278486</v>
       </c>
       <c r="C8" t="n">
-        <v>2107.607341885688</v>
+        <v>214.5386780278486</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>214.5386780278486</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4808,13 +4808,13 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V8" t="n">
-        <v>2169.72394915887</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W8" t="n">
-        <v>2169.72394915887</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X8" t="n">
-        <v>2169.72394915887</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="Y8" t="n">
-        <v>2169.72394915887</v>
+        <v>601.1385180919704</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4884,19 +4884,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4911,13 +4911,13 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>336.2769833124028</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C10" t="n">
-        <v>336.2769833124028</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D10" t="n">
-        <v>336.2769833124028</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E10" t="n">
-        <v>336.2769833124028</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>336.2769833124028</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>336.2769833124028</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
         <v>99.59950625323012</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124028</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T10" t="n">
-        <v>336.2769833124028</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="U10" t="n">
-        <v>336.2769833124028</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="V10" t="n">
-        <v>336.2769833124028</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="W10" t="n">
-        <v>336.2769833124028</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="X10" t="n">
-        <v>336.2769833124028</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y10" t="n">
-        <v>336.2769833124028</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1954.141365880777</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C11" t="n">
-        <v>1954.141365880777</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D11" t="n">
-        <v>1595.875667274027</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E11" t="n">
-        <v>1210.087414675782</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F11" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G11" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533144</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018223</v>
+        <v>2672.647662972951</v>
       </c>
       <c r="S11" t="n">
-        <v>2546.241791169794</v>
+        <v>2672.647662972951</v>
       </c>
       <c r="T11" t="n">
-        <v>2327.607124141857</v>
+        <v>2672.647662972951</v>
       </c>
       <c r="U11" t="n">
-        <v>2327.607124141857</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="V11" t="n">
-        <v>2327.607124141857</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="W11" t="n">
-        <v>2327.607124141857</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="X11" t="n">
-        <v>1954.141365880777</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y11" t="n">
-        <v>1954.141365880777</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="12">
@@ -5094,67 +5094,67 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M12" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N12" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O12" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P12" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>108.9687959810047</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C13" t="n">
-        <v>108.9687959810047</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D13" t="n">
-        <v>108.9687959810047</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E13" t="n">
-        <v>108.9687959810047</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F13" t="n">
-        <v>108.9687959810047</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G13" t="n">
-        <v>108.9687959810047</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
-        <v>108.9687959810047</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
@@ -5206,43 +5206,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N13" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>336.276983312403</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T13" t="n">
-        <v>108.9687959810047</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U13" t="n">
-        <v>108.9687959810047</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V13" t="n">
-        <v>108.9687959810047</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W13" t="n">
-        <v>108.9687959810047</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X13" t="n">
-        <v>108.9687959810047</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y13" t="n">
-        <v>108.9687959810047</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1310.833184497836</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C14" t="n">
-        <v>1310.833184497836</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D14" t="n">
-        <v>952.5674858910851</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E14" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F14" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G14" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533144</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q14" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2546.834727124573</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T14" t="n">
-        <v>2328.200060096636</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U14" t="n">
-        <v>2074.438274734727</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V14" t="n">
-        <v>2074.438274734727</v>
+        <v>2317.164380266784</v>
       </c>
       <c r="W14" t="n">
-        <v>2074.438274734727</v>
+        <v>2317.164380266784</v>
       </c>
       <c r="X14" t="n">
-        <v>1700.972516473647</v>
+        <v>1943.698622005704</v>
       </c>
       <c r="Y14" t="n">
-        <v>1310.833184497836</v>
+        <v>1553.559290029893</v>
       </c>
     </row>
     <row r="15">
@@ -5331,31 +5331,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K15" t="n">
         <v>309.190302261463</v>
@@ -5376,22 +5376,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>550.5654064942403</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C16" t="n">
-        <v>550.5654064942403</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D16" t="n">
-        <v>550.5654064942403</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E16" t="n">
-        <v>550.5654064942403</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F16" t="n">
-        <v>550.5654064942403</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G16" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H16" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
@@ -5443,43 +5443,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N16" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>550.5654064942403</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T16" t="n">
-        <v>550.5654064942403</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U16" t="n">
-        <v>550.5654064942403</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V16" t="n">
-        <v>550.5654064942403</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W16" t="n">
-        <v>550.5654064942403</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X16" t="n">
-        <v>550.5654064942403</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y16" t="n">
-        <v>550.5654064942403</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="17">
@@ -5489,31 +5489,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2423.485734520779</v>
+        <v>2310.549250954101</v>
       </c>
       <c r="C17" t="n">
-        <v>2054.523217580367</v>
+        <v>1941.586734013689</v>
       </c>
       <c r="D17" t="n">
-        <v>1696.257518973617</v>
+        <v>1583.321035406939</v>
       </c>
       <c r="E17" t="n">
-        <v>1310.469266375372</v>
+        <v>1197.532782808694</v>
       </c>
       <c r="F17" t="n">
-        <v>899.4833615857649</v>
+        <v>786.546878019087</v>
       </c>
       <c r="G17" t="n">
-        <v>481.5195534839518</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H17" t="n">
-        <v>154.3248335199546</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I17" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533144</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K17" t="n">
         <v>463.9616490733129</v>
@@ -5537,28 +5537,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T17" t="n">
-        <v>2423.485734520779</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U17" t="n">
-        <v>2423.485734520779</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V17" t="n">
-        <v>2423.485734520779</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W17" t="n">
-        <v>2423.485734520779</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X17" t="n">
-        <v>2423.485734520779</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Y17" t="n">
-        <v>2423.485734520779</v>
+        <v>2697.149091018223</v>
       </c>
     </row>
     <row r="18">
@@ -5568,49 +5568,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M18" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N18" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O18" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P18" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018223</v>
@@ -5637,7 +5637,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y18" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="19">
@@ -5695,28 +5695,28 @@
         <v>728.1289842064343</v>
       </c>
       <c r="R19" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S19" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T19" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U19" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V19" t="n">
-        <v>579.9823256406182</v>
+        <v>473.4444960005475</v>
       </c>
       <c r="W19" t="n">
-        <v>579.9823256406182</v>
+        <v>184.0273259635869</v>
       </c>
       <c r="X19" t="n">
-        <v>351.9927747426009</v>
+        <v>184.0273259635869</v>
       </c>
       <c r="Y19" t="n">
-        <v>131.2001955990708</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2107.607341885688</v>
+        <v>2310.5492509541</v>
       </c>
       <c r="C20" t="n">
-        <v>2107.607341885688</v>
+        <v>1941.586734013689</v>
       </c>
       <c r="D20" t="n">
-        <v>1749.341643278937</v>
+        <v>1583.321035406938</v>
       </c>
       <c r="E20" t="n">
-        <v>1363.553390680693</v>
+        <v>1197.532782808694</v>
       </c>
       <c r="F20" t="n">
-        <v>952.5674858910851</v>
+        <v>786.5468780190865</v>
       </c>
       <c r="G20" t="n">
-        <v>534.603677789272</v>
+        <v>368.5830699172734</v>
       </c>
       <c r="H20" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U20" t="n">
-        <v>2460.375997155802</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V20" t="n">
-        <v>2460.375997155802</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W20" t="n">
-        <v>2107.607341885688</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X20" t="n">
-        <v>2107.607341885688</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y20" t="n">
-        <v>2107.607341885688</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5826,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O21" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P21" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018223</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>98.37975290126624</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="C22" t="n">
-        <v>98.37975290126624</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="D22" t="n">
-        <v>98.37975290126624</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="E22" t="n">
-        <v>98.37975290126624</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="F22" t="n">
-        <v>98.37975290126624</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036446</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036446</v>
+        <v>128.7840011257288</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
@@ -5917,43 +5917,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064343</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T22" t="n">
-        <v>500.8207968750361</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U22" t="n">
-        <v>500.8207968750361</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="V22" t="n">
-        <v>500.8207968750361</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="W22" t="n">
-        <v>500.8207968750361</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="X22" t="n">
-        <v>500.8207968750361</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="Y22" t="n">
-        <v>280.0282177315059</v>
+        <v>286.5323736931987</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5963,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>799.1015098861748</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C23" t="n">
-        <v>799.1015098861748</v>
+        <v>412.2086804271149</v>
       </c>
       <c r="D23" t="n">
-        <v>799.1015098861748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E23" t="n">
-        <v>799.1015098861748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F23" t="n">
-        <v>799.1015098861748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G23" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6017,22 +6017,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2500.29992809866</v>
+        <v>2615.207670282225</v>
       </c>
       <c r="U23" t="n">
-        <v>2246.538142736751</v>
+        <v>2615.207670282225</v>
       </c>
       <c r="V23" t="n">
-        <v>1915.475255393181</v>
+        <v>2284.144782938654</v>
       </c>
       <c r="W23" t="n">
-        <v>1562.706600123066</v>
+        <v>1931.37612766854</v>
       </c>
       <c r="X23" t="n">
-        <v>1189.240841861987</v>
+        <v>1557.91036940746</v>
       </c>
       <c r="Y23" t="n">
-        <v>799.1015098861748</v>
+        <v>1167.771037431648</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M24" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N24" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018223</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>546.4805193761946</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="C25" t="n">
-        <v>546.4805193761946</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="D25" t="n">
-        <v>517.7458231623355</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="E25" t="n">
-        <v>369.8327295799424</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="F25" t="n">
-        <v>222.942782082032</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
@@ -6154,43 +6154,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064343</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064343</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064343</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064343</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="V25" t="n">
-        <v>728.1289842064343</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="W25" t="n">
-        <v>728.1289842064343</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="X25" t="n">
-        <v>728.1289842064343</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="Y25" t="n">
-        <v>728.1289842064343</v>
+        <v>138.3857151273827</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1546.944160717209</v>
+        <v>1567.641263708175</v>
       </c>
       <c r="C26" t="n">
-        <v>1177.981643776797</v>
+        <v>1198.678746767763</v>
       </c>
       <c r="D26" t="n">
-        <v>1177.981643776797</v>
+        <v>840.4130481610125</v>
       </c>
       <c r="E26" t="n">
-        <v>792.1933911785532</v>
+        <v>454.6247955627683</v>
       </c>
       <c r="F26" t="n">
-        <v>381.2074863889456</v>
+        <v>454.6247955627683</v>
       </c>
       <c r="G26" t="n">
         <v>53.94298182036445</v>
@@ -6227,10 +6227,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6263,13 +6263,13 @@
         <v>2697.149091018222</v>
       </c>
       <c r="W26" t="n">
-        <v>2697.149091018222</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X26" t="n">
-        <v>2323.683332757143</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="Y26" t="n">
-        <v>1933.544000781331</v>
+        <v>1954.241103772296</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6303,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N27" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018223</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036445</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036445</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036445</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036445</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036445</v>
+        <v>63.8323157735459</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036445</v>
+        <v>63.8323157735459</v>
       </c>
       <c r="H28" t="n">
         <v>53.94298182036445</v>
@@ -6412,22 +6412,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V28" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W28" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X28" t="n">
-        <v>53.94298182036445</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036445</v>
+        <v>210.7222632714563</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6437,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1546.944160717209</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C29" t="n">
-        <v>1177.981643776797</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="D29" t="n">
-        <v>1177.981643776797</v>
+        <v>819.7159451700475</v>
       </c>
       <c r="E29" t="n">
-        <v>792.1933911785532</v>
+        <v>433.9276925718032</v>
       </c>
       <c r="F29" t="n">
-        <v>381.2074863889456</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6479,28 +6479,28 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X29" t="n">
         <v>2323.683332757143</v>
@@ -6516,31 +6516,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036469</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K30" t="n">
         <v>309.190302261463</v>
@@ -6585,7 +6585,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y30" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="31">
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2022.963088632153</v>
+        <v>2140.045780290769</v>
       </c>
       <c r="C31" t="n">
-        <v>2022.963088632153</v>
+        <v>2140.045780290769</v>
       </c>
       <c r="D31" t="n">
-        <v>2022.963088632153</v>
+        <v>2140.045780290769</v>
       </c>
       <c r="E31" t="n">
-        <v>2022.963088632153</v>
+        <v>2140.045780290769</v>
       </c>
       <c r="F31" t="n">
-        <v>2022.963088632153</v>
+        <v>2140.045780290769</v>
       </c>
       <c r="G31" t="n">
         <v>2022.963088632153</v>
@@ -6625,46 +6625,46 @@
         <v>2079.265281698421</v>
       </c>
       <c r="L31" t="n">
-        <v>2206.839139259579</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M31" t="n">
-        <v>2351.737007977609</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N31" t="n">
-        <v>2498.624145662038</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O31" t="n">
-        <v>2618.281896171278</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P31" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q31" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R31" t="n">
         <v>2549.002432452407</v>
       </c>
       <c r="S31" t="n">
-        <v>2334.714009270569</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="T31" t="n">
-        <v>2107.405821939171</v>
+        <v>2321.694245121009</v>
       </c>
       <c r="U31" t="n">
-        <v>2022.963088632153</v>
+        <v>2321.694245121009</v>
       </c>
       <c r="V31" t="n">
-        <v>2022.963088632153</v>
+        <v>2321.694245121009</v>
       </c>
       <c r="W31" t="n">
-        <v>2022.963088632153</v>
+        <v>2321.694245121009</v>
       </c>
       <c r="X31" t="n">
-        <v>2022.963088632153</v>
+        <v>2321.694245121009</v>
       </c>
       <c r="Y31" t="n">
-        <v>2022.963088632153</v>
+        <v>2321.694245121009</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1036.358670716696</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="C32" t="n">
-        <v>1036.358670716696</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="D32" t="n">
-        <v>1036.358670716696</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E32" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F32" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G32" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H32" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533144</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S32" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T32" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="U32" t="n">
-        <v>1993.54646147304</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="V32" t="n">
-        <v>1662.48357412947</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W32" t="n">
-        <v>1309.714918859356</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="X32" t="n">
-        <v>1309.714918859356</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="Y32" t="n">
-        <v>1309.714918859356</v>
+        <v>1971.274048960885</v>
       </c>
     </row>
     <row r="33">
@@ -6753,67 +6753,67 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C33" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036423</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K33" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L33" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M33" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N33" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O33" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2191.89927156006</v>
+        <v>2515.500626187983</v>
       </c>
       <c r="C34" t="n">
-        <v>2022.963088632153</v>
+        <v>2346.564443260076</v>
       </c>
       <c r="D34" t="n">
-        <v>2022.963088632153</v>
+        <v>2196.44780384774</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.963088632153</v>
+        <v>2048.534710265347</v>
       </c>
       <c r="F34" t="n">
         <v>2022.963088632153</v>
@@ -6862,46 +6862,46 @@
         <v>2079.265281698421</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.839139259579</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.737007977609</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662038</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171278</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T34" t="n">
-        <v>2469.840903686824</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U34" t="n">
-        <v>2469.840903686824</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V34" t="n">
-        <v>2215.156415480938</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W34" t="n">
-        <v>2191.89927156006</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X34" t="n">
-        <v>2191.89927156006</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Y34" t="n">
-        <v>2191.89927156006</v>
+        <v>2697.149091018223</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2169.72394915887</v>
+        <v>833.8914035503838</v>
       </c>
       <c r="C35" t="n">
-        <v>1800.761432218459</v>
+        <v>464.928886609972</v>
       </c>
       <c r="D35" t="n">
-        <v>1442.495733611708</v>
+        <v>464.928886609972</v>
       </c>
       <c r="E35" t="n">
-        <v>1056.707481013464</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F35" t="n">
-        <v>645.7215762238563</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G35" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H35" t="n">
         <v>53.94298182036446</v>
@@ -6935,13 +6935,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533144</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6959,28 +6959,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T35" t="n">
-        <v>2423.485734520779</v>
+        <v>2667.927876465082</v>
       </c>
       <c r="U35" t="n">
-        <v>2169.72394915887</v>
+        <v>2667.927876465082</v>
       </c>
       <c r="V35" t="n">
-        <v>2169.72394915887</v>
+        <v>2336.864989121511</v>
       </c>
       <c r="W35" t="n">
-        <v>2169.72394915887</v>
+        <v>1984.096333851397</v>
       </c>
       <c r="X35" t="n">
-        <v>2169.72394915887</v>
+        <v>1610.630575590317</v>
       </c>
       <c r="Y35" t="n">
-        <v>2169.72394915887</v>
+        <v>1220.491243614505</v>
       </c>
     </row>
     <row r="36">
@@ -7017,22 +7017,22 @@
         <v>53.94298182036446</v>
       </c>
       <c r="K36" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L36" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M36" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N36" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018223</v>
@@ -7069,10 +7069,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2022.963088632153</v>
+        <v>2342.015910972396</v>
       </c>
       <c r="C37" t="n">
-        <v>2022.963088632153</v>
+        <v>2173.079728044489</v>
       </c>
       <c r="D37" t="n">
         <v>2022.963088632153</v>
@@ -7114,31 +7114,31 @@
         <v>2697.149091018223</v>
       </c>
       <c r="Q37" t="n">
-        <v>2697.149091018223</v>
+        <v>2667.732171871845</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.149091018223</v>
+        <v>2519.585513306029</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.149091018223</v>
+        <v>2342.015910972396</v>
       </c>
       <c r="T37" t="n">
-        <v>2697.149091018223</v>
+        <v>2342.015910972396</v>
       </c>
       <c r="U37" t="n">
-        <v>2697.149091018223</v>
+        <v>2342.015910972396</v>
       </c>
       <c r="V37" t="n">
-        <v>2442.464602812336</v>
+        <v>2342.015910972396</v>
       </c>
       <c r="W37" t="n">
-        <v>2153.047432775375</v>
+        <v>2342.015910972396</v>
       </c>
       <c r="X37" t="n">
-        <v>2022.963088632153</v>
+        <v>2342.015910972396</v>
       </c>
       <c r="Y37" t="n">
-        <v>2022.963088632153</v>
+        <v>2342.015910972396</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2310.549250954101</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C38" t="n">
-        <v>1941.586734013689</v>
+        <v>412.208680427115</v>
       </c>
       <c r="D38" t="n">
-        <v>1583.321035406939</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E38" t="n">
-        <v>1197.532782808694</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F38" t="n">
-        <v>786.546878019087</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G38" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H38" t="n">
         <v>53.94298182036446</v>
@@ -7172,52 +7172,52 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U38" t="n">
-        <v>2697.149091018223</v>
+        <v>2615.207670282225</v>
       </c>
       <c r="V38" t="n">
-        <v>2697.149091018223</v>
+        <v>2284.144782938654</v>
       </c>
       <c r="W38" t="n">
-        <v>2697.149091018223</v>
+        <v>1931.37612766854</v>
       </c>
       <c r="X38" t="n">
-        <v>2697.149091018223</v>
+        <v>1557.91036940746</v>
       </c>
       <c r="Y38" t="n">
-        <v>2697.149091018223</v>
+        <v>1167.771037431648</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7251,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L39" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M39" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018223</v>
@@ -7354,25 +7354,25 @@
         <v>728.1289842064343</v>
       </c>
       <c r="R40" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S40" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T40" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U40" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V40" t="n">
-        <v>325.2978374347314</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2978374347314</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X40" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y40" t="n">
         <v>53.94298182036446</v>
@@ -7388,19 +7388,19 @@
         <v>1546.94416071721</v>
       </c>
       <c r="C41" t="n">
-        <v>1546.94416071721</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D41" t="n">
-        <v>1546.94416071721</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E41" t="n">
-        <v>1161.155908118965</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F41" t="n">
-        <v>750.1700033293578</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G41" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H41" t="n">
         <v>53.94298182036446</v>
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
         <v>53.94298182036446</v>
@@ -7491,22 +7491,22 @@
         <v>53.94298182036446</v>
       </c>
       <c r="K42" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L42" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M42" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N42" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018223</v>
@@ -7533,7 +7533,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y42" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="43">
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036446</v>
+        <v>559.1928012785274</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036446</v>
+        <v>409.0761618661917</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036446</v>
+        <v>261.1630682837986</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G43" t="n">
         <v>53.94298182036446</v>
@@ -7609,10 +7609,10 @@
         <v>728.1289842064343</v>
       </c>
       <c r="X43" t="n">
-        <v>625.3202087220412</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y43" t="n">
-        <v>404.5276295785111</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1749.341643278937</v>
+        <v>1192.157102157134</v>
       </c>
       <c r="C44" t="n">
-        <v>1749.341643278937</v>
+        <v>823.1945852167225</v>
       </c>
       <c r="D44" t="n">
-        <v>1749.341643278937</v>
+        <v>464.928886609972</v>
       </c>
       <c r="E44" t="n">
-        <v>1363.553390680693</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F44" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G44" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I44" t="n">
         <v>53.94298182036446</v>
@@ -7670,28 +7670,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548716</v>
+        <v>2673.424919801718</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548716</v>
+        <v>2673.424919801718</v>
       </c>
       <c r="T44" t="n">
-        <v>2642.120401548716</v>
+        <v>2673.424919801718</v>
       </c>
       <c r="U44" t="n">
-        <v>2642.120401548716</v>
+        <v>2673.424919801718</v>
       </c>
       <c r="V44" t="n">
-        <v>2526.08081531887</v>
+        <v>2342.362032458147</v>
       </c>
       <c r="W44" t="n">
-        <v>2526.08081531887</v>
+        <v>2342.362032458147</v>
       </c>
       <c r="X44" t="n">
-        <v>2526.08081531887</v>
+        <v>1968.896274197068</v>
       </c>
       <c r="Y44" t="n">
-        <v>2135.941483343059</v>
+        <v>1578.756942221256</v>
       </c>
     </row>
     <row r="45">
@@ -7701,31 +7701,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I45" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K45" t="n">
         <v>266.2060027641994</v>
@@ -7770,7 +7770,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y45" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="46">
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>500.139433308417</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C46" t="n">
-        <v>500.139433308417</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D46" t="n">
-        <v>500.139433308417</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E46" t="n">
-        <v>500.139433308417</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F46" t="n">
-        <v>353.2494858105066</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G46" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H46" t="n">
         <v>53.94298182036446</v>
@@ -7831,25 +7831,25 @@
         <v>728.1289842064343</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064343</v>
+        <v>513.840561024597</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064343</v>
+        <v>513.840561024597</v>
       </c>
       <c r="U46" t="n">
-        <v>728.1289842064343</v>
+        <v>513.840561024597</v>
       </c>
       <c r="V46" t="n">
-        <v>728.1289842064343</v>
+        <v>513.840561024597</v>
       </c>
       <c r="W46" t="n">
-        <v>728.1289842064343</v>
+        <v>513.840561024597</v>
       </c>
       <c r="X46" t="n">
-        <v>500.139433308417</v>
+        <v>285.8510101265797</v>
       </c>
       <c r="Y46" t="n">
-        <v>500.139433308417</v>
+        <v>65.05843098304959</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,19 +8292,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8532,7 +8532,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8547,7 +8547,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>275.0442842992665</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8775,7 +8775,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>166.6588033951786</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.64146763747166</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9495,10 +9495,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q21" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10428,7 +10428,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10665,7 +10665,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,7 +11139,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K45" t="n">
-        <v>145.0294169142014</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>371.3427523386205</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>35.61419889577297</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22556,16 +22556,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,22 +22592,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22720,10 +22720,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22753,13 +22753,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>56.8258083455525</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>277.0062774114808</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22784,13 +22784,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -22802,7 +22802,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>36.34344014469343</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,25 +22829,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>73.47059368733039</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22948,7 +22948,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>128.0571403890127</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -22957,13 +22957,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>82.85718120047569</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -23018,28 +23018,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>303.7774505705572</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>222.9406308268525</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,10 +23066,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -23078,16 +23078,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23194,10 +23194,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>56.82580834555246</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23221,7 +23221,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -23230,10 +23230,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>247.8835274565667</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
         <v>151.9313162448613</v>
@@ -23303,16 +23303,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>30.22198880999338</v>
       </c>
       <c r="S11" t="n">
-        <v>25.01748595902737</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23434,10 +23434,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>125.6900249618414</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,19 +23458,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>56.01837628787186</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,19 +23540,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
-        <v>80.08289512906991</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>125.9831076351825</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23665,16 +23665,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>11.99007165458423</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,19 +23695,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>56.01837628787186</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23744,13 +23744,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>12.42908554841694</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>52.553283062267</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,13 +23777,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
         <v>251.2241675082893</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>103.347338541018</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23935,7 +23935,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
@@ -23947,16 +23947,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>89.8011526503046</v>
       </c>
     </row>
     <row r="20">
@@ -23966,10 +23966,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23984,10 +23984,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>12.42908554841733</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24023,13 +24023,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>16.81880458449265</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>123.3173988889581</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923382</v>
+        <v>60.8730126800275</v>
       </c>
       <c r="J22" t="n">
         <v>45.199959188537</v>
@@ -24175,7 +24175,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24203,13 +24203,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24218,10 +24218,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -24257,10 +24257,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>21.56764906729066</v>
+        <v>135.3263138290204</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24361,22 +24361,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>120.1681237664918</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>83.71149628510288</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
@@ -24409,13 +24409,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2818742419777</v>
@@ -24446,16 +24446,16 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>89.79231049789962</v>
+        <v>17.10917441581523</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -24503,10 +24503,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24610,13 +24610,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>146.3804482281455</v>
       </c>
       <c r="I28" t="n">
         <v>134.9656217923382</v>
@@ -24652,19 +24652,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>96.01048066168096</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24683,16 +24683,16 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>30.69118209778713</v>
       </c>
       <c r="G29" t="n">
-        <v>89.79231049789962</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24850,7 +24850,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>51.39793751702142</v>
       </c>
       <c r="H31" t="n">
         <v>156.1708888417951</v>
@@ -24886,13 +24886,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>202.6835682680295</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24914,16 +24914,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>112.1111560022472</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>134.9699599955544</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24932,7 +24932,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24962,7 +24962,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -24971,13 +24971,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -25072,19 +25072,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>120.1051426060693</v>
       </c>
       <c r="G34" t="n">
         <v>167.3098022590509</v>
@@ -25126,16 +25126,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>263.498425854922</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25151,25 +25151,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>151.8461343256952</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -25199,28 +25199,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>187.5193179500485</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25312,10 +25312,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25354,13 +25354,13 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>212.1455389500189</v>
+        <v>36.35163263972208</v>
       </c>
       <c r="T37" t="n">
         <v>225.0351054580843</v>
@@ -25369,13 +25369,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>96.92615468724728</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25397,16 +25397,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>12.42908554841694</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
         <v>151.9313162448613</v>
@@ -25445,19 +25445,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>170.102160979652</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25594,7 +25594,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
@@ -25606,16 +25606,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>96.92615468724699</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>175.6530016829087</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25628,7 +25628,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>89.79231049789934</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25640,10 +25640,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>48.44219149124882</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
         <v>151.9313162448613</v>
@@ -25783,22 +25783,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>107.5829646831824</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
@@ -25849,10 +25849,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>123.928967659488</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25865,25 +25865,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,7 +25910,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>30.99147307047216</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
@@ -25922,13 +25922,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>212.8730681025878</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>168.827685510879</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26032,13 +26032,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>27.16725215060535</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
         <v>134.9656217923382</v>
@@ -26071,7 +26071,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>225.0351054580843</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>740597.3441099979</v>
+        <v>740597.3441099977</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>740597.3441099977</v>
+        <v>740597.3441099979</v>
       </c>
     </row>
     <row r="5">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>740597.3441099976</v>
+        <v>740597.3441099977</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>740597.3441099976</v>
+        <v>740597.3441099979</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>740597.3441099977</v>
+        <v>740597.3441099976</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>740597.3441099977</v>
+        <v>740597.3441099979</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>740597.3441099977</v>
+        <v>740597.3441099979</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>740597.3441099979</v>
+        <v>740597.344109998</v>
       </c>
     </row>
   </sheetData>
@@ -26317,7 +26317,7 @@
         <v>289152.6100157575</v>
       </c>
       <c r="D2" t="n">
-        <v>289152.6100157574</v>
+        <v>289152.6100157576</v>
       </c>
       <c r="E2" t="n">
         <v>289152.6100157576</v>
@@ -26326,10 +26326,10 @@
         <v>289152.6100157576</v>
       </c>
       <c r="G2" t="n">
-        <v>289152.6100157576</v>
+        <v>289152.6100157574</v>
       </c>
       <c r="H2" t="n">
-        <v>289152.6100157573</v>
+        <v>289152.6100157574</v>
       </c>
       <c r="I2" t="n">
         <v>289152.6100157576</v>
@@ -26338,22 +26338,22 @@
         <v>289152.6100157576</v>
       </c>
       <c r="K2" t="n">
+        <v>289152.6100157575</v>
+      </c>
+      <c r="L2" t="n">
         <v>289152.6100157574</v>
       </c>
-      <c r="L2" t="n">
-        <v>289152.6100157573</v>
-      </c>
       <c r="M2" t="n">
-        <v>289152.6100157575</v>
+        <v>289152.6100157576</v>
       </c>
       <c r="N2" t="n">
-        <v>289152.6100157575</v>
+        <v>289152.6100157576</v>
       </c>
       <c r="O2" t="n">
-        <v>289152.6100157575</v>
+        <v>289152.6100157577</v>
       </c>
       <c r="P2" t="n">
-        <v>289152.6100157577</v>
+        <v>289152.6100157576</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14353.59214796873</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="C4" t="n">
-        <v>14353.59214796873</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="D4" t="n">
-        <v>14353.59214796873</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="E4" t="n">
-        <v>14353.59214796873</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="F4" t="n">
-        <v>14353.59214796873</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="G4" t="n">
-        <v>14353.59214796873</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="H4" t="n">
-        <v>14353.59214796873</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="I4" t="n">
-        <v>14353.59214796873</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="J4" t="n">
-        <v>14353.59214796873</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="K4" t="n">
-        <v>14353.59214796873</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="L4" t="n">
-        <v>14353.59214796873</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="M4" t="n">
-        <v>14353.59214796873</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="N4" t="n">
-        <v>14353.59214796873</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="O4" t="n">
-        <v>14353.59214796874</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="P4" t="n">
-        <v>14353.59214796874</v>
+        <v>18228.92756966326</v>
       </c>
     </row>
     <row r="5">
@@ -26476,28 +26476,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="F5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="G5" t="n">
         <v>49231.47806340947</v>
       </c>
       <c r="H5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="L5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="M5" t="n">
         <v>49231.47806340947</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-398027.9394101651</v>
+        <v>-401903.2748318597</v>
       </c>
       <c r="C6" t="n">
-        <v>191939.9398043793</v>
+        <v>188064.6043826848</v>
       </c>
       <c r="D6" t="n">
-        <v>191939.9398043793</v>
+        <v>188064.6043826848</v>
       </c>
       <c r="E6" t="n">
-        <v>225567.5398043794</v>
+        <v>221692.2043826848</v>
       </c>
       <c r="F6" t="n">
-        <v>225567.5398043794</v>
+        <v>221692.2043826849</v>
       </c>
       <c r="G6" t="n">
-        <v>225567.5398043794</v>
+        <v>221692.2043826847</v>
       </c>
       <c r="H6" t="n">
-        <v>225567.5398043791</v>
+        <v>221692.2043826847</v>
       </c>
       <c r="I6" t="n">
-        <v>225567.5398043794</v>
+        <v>221692.2043826849</v>
       </c>
       <c r="J6" t="n">
-        <v>49144.32061178649</v>
+        <v>45268.98519009195</v>
       </c>
       <c r="K6" t="n">
-        <v>225567.5398043793</v>
+        <v>221692.2043826848</v>
       </c>
       <c r="L6" t="n">
-        <v>225567.5398043791</v>
+        <v>221692.2043826847</v>
       </c>
       <c r="M6" t="n">
-        <v>225567.5398043793</v>
+        <v>221692.2043826849</v>
       </c>
       <c r="N6" t="n">
-        <v>225567.5398043793</v>
+        <v>221692.2043826848</v>
       </c>
       <c r="O6" t="n">
-        <v>225567.5398043793</v>
+        <v>221692.204382685</v>
       </c>
       <c r="P6" t="n">
-        <v>225567.5398043795</v>
+        <v>221692.2043826848</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26796,28 +26796,28 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
         <v>674.2872727545557</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="M4" t="n">
         <v>674.2872727545557</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31221,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35012,19 +35012,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35267,7 +35267,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181313</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K11" t="n">
         <v>297.2230414343419</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35495,7 +35495,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N12" t="n">
         <v>559.3197334338902</v>
@@ -35507,7 +35507,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181313</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K14" t="n">
         <v>297.2230414343419</v>
@@ -35744,7 +35744,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>130.3926104730635</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.9372285181313</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K17" t="n">
         <v>297.2230414343419</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35981,7 +35981,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36215,10 +36215,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M24" t="n">
         <v>529.4413268262938</v>
@@ -36455,7 +36455,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36692,7 +36692,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181313</v>
       </c>
       <c r="K32" t="n">
         <v>297.2230414343419</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37166,7 +37166,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181313</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K35" t="n">
         <v>297.2230414343419</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37403,7 +37403,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M39" t="n">
         <v>529.4413268262938</v>
@@ -37640,7 +37640,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37877,7 +37877,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>138.3897561047526</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_2_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_2_20.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1090569.222288338</v>
+        <v>1119413.533043065</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189902.9539564198</v>
+        <v>189902.9539564199</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728807</v>
+        <v>9102620.618728815</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8563618.131171675</v>
+        <v>8563618.131171674</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>329.6586928752346</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>316.5789886999469</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -738,7 +740,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883154</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -756,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984489</v>
+        <v>196.8897623984484</v>
       </c>
       <c r="U3" t="n">
         <v>225.8879277888686</v>
@@ -823,22 +825,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>18.37682225755638</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>9.27559683049698</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -896,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>133.7542698189849</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>115.5878761001678</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -959,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1057,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>18.3768222575565</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>3.714056408044396</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -1072,10 +1074,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1133,13 +1135,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>158.9897392454093</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1190,7 +1192,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>66.99070336972514</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
       </c>
       <c r="T9" t="n">
-        <v>196.8897623984484</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U9" t="n">
         <v>225.8879277888686</v>
@@ -1288,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>25.31590541686235</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1312,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>38.39834678541102</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1367,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1382,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>24.25641376481833</v>
+        <v>27.23426475783293</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1430,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1469,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1570,19 +1572,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>156.127162662147</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>54.47555601903363</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1604,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>61.4954412004503</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1616,16 +1618,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>201.7691508349524</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1706,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1786,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,19 +1809,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>156.127162662147</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>9.275596830496628</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1841,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>267.9051600201235</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1856,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>401.3550844723781</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
@@ -1895,10 +1897,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1941,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2056,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>128.7835007017902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2093,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>193.6051044699636</v>
       </c>
       <c r="H20" t="n">
-        <v>311.4936872159398</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2254,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>74.09260911231073</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>156.1271626621467</v>
       </c>
       <c r="T22" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2321,16 +2323,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2369,16 +2371,16 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>81.12200652863734</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2415,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2476,10 +2478,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>83.59830597394803</v>
+        <v>125.8721928563317</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2539,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2555,19 +2557,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>275.4805812731078</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>396.6749956049798</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2615,10 +2617,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2652,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2722,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>9.790440613649634</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>230.2634979541059</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2792,25 +2794,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>376.1848636439243</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,22 +2845,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>78.3072519866124</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2962,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>115.9118647420295</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>274.4246847141209</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3013,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>219.7130816251285</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>376.184863643924</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>25.31590541686196</v>
+        <v>62.33263748886688</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3275,16 +3277,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>80.83194702764899</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>28.92900240760932</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3363,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3424,10 +3426,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3466,16 +3468,16 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>175.7939063102968</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>155.2114886365808</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3484,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3509,16 +3511,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>311.4936872159398</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,19 +3559,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>81.12200652863734</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3709,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>156.1271626621467</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>155.211488636581</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3740,10 +3742,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>275.4805812731082</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3752,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3791,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3803,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>122.5915982230237</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3837,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3898,25 +3900,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>37.83808333974886</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>52.10844059186244</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3983,10 +3985,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>376.184863643924</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4022,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>23.48692950433955</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4034,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4074,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>11.00429467105828</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4147,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>141.3236091729816</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
@@ -4198,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1215.881273373638</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="C2" t="n">
-        <v>882.8926947117852</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="D2" t="n">
-        <v>882.8926947117852</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2366.086203674652</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2366.086203674652</v>
+        <v>1342.706817866897</v>
       </c>
       <c r="X2" t="n">
-        <v>1992.620445413572</v>
+        <v>1342.706817866897</v>
       </c>
       <c r="Y2" t="n">
-        <v>1602.48111343776</v>
+        <v>952.5674858910851</v>
       </c>
     </row>
     <row r="3">
@@ -4383,7 +4385,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
         <v>814.0449459359563</v>
@@ -4437,13 +4439,13 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.5995062532301</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>99.5995062532301</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D4" t="n">
-        <v>99.5995062532301</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E4" t="n">
-        <v>99.5995062532301</v>
+        <v>709.5665374816298</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>562.6765899837194</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>108.9687959810048</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>99.5995062532301</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>99.5995062532301</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>99.5995062532301</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>99.5995062532301</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>99.5995062532301</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1336.435086552838</v>
+        <v>1017.998017761265</v>
       </c>
       <c r="C5" t="n">
-        <v>967.4725696124262</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D5" t="n">
-        <v>967.4725696124262</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E5" t="n">
-        <v>581.6843170141819</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>170.6984122245744</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>170.6984122245744</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>170.6984122245744</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4571,7 +4573,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W5" t="n">
-        <v>2113.174258592771</v>
+        <v>2168.202948062278</v>
       </c>
       <c r="X5" t="n">
-        <v>2113.174258592771</v>
+        <v>1794.737189801198</v>
       </c>
       <c r="Y5" t="n">
-        <v>1723.03492661696</v>
+        <v>1404.597857825387</v>
       </c>
     </row>
     <row r="6">
@@ -4620,43 +4622,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4683,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4705,19 +4707,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="D7" t="n">
-        <v>728.1289842064342</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E7" t="n">
-        <v>709.5665374816297</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F7" t="n">
-        <v>562.6765899837193</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220517</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
         <v>99.59950625323012</v>
@@ -4778,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>214.5386780278486</v>
+        <v>422.9054987607761</v>
       </c>
       <c r="C8" t="n">
-        <v>214.5386780278486</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D8" t="n">
-        <v>214.5386780278486</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E8" t="n">
         <v>53.94298182036445</v>
@@ -4802,19 +4804,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.575150942547</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>1717.512263598976</v>
+        <v>1925.879084331904</v>
       </c>
       <c r="W8" t="n">
-        <v>1364.743608328862</v>
+        <v>1573.11042906179</v>
       </c>
       <c r="X8" t="n">
-        <v>991.2778500677821</v>
+        <v>1199.64467080071</v>
       </c>
       <c r="Y8" t="n">
-        <v>601.1385180919704</v>
+        <v>809.505338824898</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4911,13 +4913,13 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323012</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4986,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>138.3857151273827</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5015,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1268.68094731003</v>
+        <v>1689.643533783874</v>
       </c>
       <c r="C11" t="n">
-        <v>1268.68094731003</v>
+        <v>1689.643533783874</v>
       </c>
       <c r="D11" t="n">
-        <v>1268.68094731003</v>
+        <v>1331.377835177124</v>
       </c>
       <c r="E11" t="n">
-        <v>882.8926947117852</v>
+        <v>945.5895825788796</v>
       </c>
       <c r="F11" t="n">
-        <v>471.9067899221776</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5063,28 +5065,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2672.647662972951</v>
+        <v>2669.639732676977</v>
       </c>
       <c r="S11" t="n">
-        <v>2672.647662972951</v>
+        <v>2669.639732676977</v>
       </c>
       <c r="T11" t="n">
-        <v>2672.647662972951</v>
+        <v>2669.639732676977</v>
       </c>
       <c r="U11" t="n">
-        <v>2418.885877611043</v>
+        <v>2415.877947315068</v>
       </c>
       <c r="V11" t="n">
-        <v>2418.885877611043</v>
+        <v>2415.877947315068</v>
       </c>
       <c r="W11" t="n">
-        <v>2418.885877611043</v>
+        <v>2063.109292044954</v>
       </c>
       <c r="X11" t="n">
-        <v>2045.420119349963</v>
+        <v>1689.643533783874</v>
       </c>
       <c r="Y11" t="n">
-        <v>1655.280787374151</v>
+        <v>1689.643533783874</v>
       </c>
     </row>
     <row r="12">
@@ -5109,22 +5111,22 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M12" t="n">
         <v>1194.968834417902</v>
@@ -5218,16 +5220,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S13" t="n">
-        <v>570.4247794971948</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T13" t="n">
-        <v>343.1165921657965</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U13" t="n">
         <v>53.94298182036445</v>
@@ -5252,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1166.959449965771</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="C14" t="n">
-        <v>797.9969330253591</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D14" t="n">
-        <v>439.7312344186087</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E14" t="n">
-        <v>53.94298182036445</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F14" t="n">
-        <v>53.94298182036445</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I14" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5300,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T14" t="n">
-        <v>2520.971603332393</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U14" t="n">
-        <v>2520.971603332393</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V14" t="n">
-        <v>2317.164380266784</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W14" t="n">
-        <v>2317.164380266784</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="X14" t="n">
-        <v>1943.698622005704</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="Y14" t="n">
-        <v>1553.559290029893</v>
+        <v>2169.72394915887</v>
       </c>
     </row>
     <row r="15">
@@ -5331,67 +5333,67 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C15" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O15" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P15" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J16" t="n">
         <v>53.94298182036445</v>
@@ -5455,31 +5457,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S16" t="n">
-        <v>570.4247794971948</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T16" t="n">
-        <v>343.1165921657965</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U16" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="V16" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="W16" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="X16" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2310.549250954101</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="C17" t="n">
-        <v>1941.586734013689</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D17" t="n">
-        <v>1583.321035406939</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E17" t="n">
-        <v>1197.532782808694</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F17" t="n">
-        <v>786.546878019087</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G17" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>2697.149091018223</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U17" t="n">
-        <v>2697.149091018223</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V17" t="n">
-        <v>2697.149091018223</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W17" t="n">
-        <v>2697.149091018223</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="X17" t="n">
-        <v>2697.149091018223</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="Y17" t="n">
-        <v>2697.149091018223</v>
+        <v>2224.752638628377</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5591,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L18" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M18" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N18" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O18" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018223</v>
@@ -5647,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5680,43 +5682,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N19" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>728.1289842064343</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V19" t="n">
-        <v>473.4444960005475</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W19" t="n">
-        <v>184.0273259635869</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X19" t="n">
-        <v>184.0273259635869</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2310.5492509541</v>
+        <v>1404.543549400789</v>
       </c>
       <c r="C20" t="n">
-        <v>1941.586734013689</v>
+        <v>1404.543549400789</v>
       </c>
       <c r="D20" t="n">
-        <v>1583.321035406938</v>
+        <v>1046.277850794038</v>
       </c>
       <c r="E20" t="n">
-        <v>1197.532782808694</v>
+        <v>660.4895981957939</v>
       </c>
       <c r="F20" t="n">
-        <v>786.5468780190865</v>
+        <v>249.5036934061863</v>
       </c>
       <c r="G20" t="n">
-        <v>368.5830699172734</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H20" t="n">
         <v>53.94298182036445</v>
@@ -5756,7 +5758,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5780,22 +5782,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U20" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V20" t="n">
-        <v>2697.149091018222</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W20" t="n">
-        <v>2697.149091018222</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="X20" t="n">
-        <v>2697.149091018222</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="Y20" t="n">
-        <v>2697.149091018222</v>
+        <v>1404.543549400789</v>
       </c>
     </row>
     <row r="21">
@@ -5829,22 +5831,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N21" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
         <v>2525.076107152626</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>286.5323736931987</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C22" t="n">
-        <v>286.5323736931987</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D22" t="n">
-        <v>286.5323736931987</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E22" t="n">
-        <v>286.5323736931987</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F22" t="n">
-        <v>286.5323736931987</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G22" t="n">
-        <v>286.5323736931987</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H22" t="n">
-        <v>128.7840011257288</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K22" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L22" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M22" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S22" t="n">
-        <v>513.8405610245969</v>
+        <v>2539.444886308983</v>
       </c>
       <c r="T22" t="n">
-        <v>286.5323736931987</v>
+        <v>2312.136698977585</v>
       </c>
       <c r="U22" t="n">
-        <v>286.5323736931987</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="V22" t="n">
-        <v>286.5323736931987</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="W22" t="n">
-        <v>286.5323736931987</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X22" t="n">
-        <v>286.5323736931987</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y22" t="n">
-        <v>286.5323736931987</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>781.1711973675267</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C23" t="n">
-        <v>412.2086804271149</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D23" t="n">
-        <v>53.94298182036445</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E23" t="n">
-        <v>53.94298182036445</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F23" t="n">
-        <v>53.94298182036445</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G23" t="n">
         <v>53.94298182036445</v>
@@ -5987,10 +5989,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L23" t="n">
         <v>881.2824271224076</v>
@@ -6017,22 +6019,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2615.207670282225</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U23" t="n">
-        <v>2615.207670282225</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V23" t="n">
-        <v>2284.144782938654</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W23" t="n">
-        <v>1931.37612766854</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X23" t="n">
-        <v>1557.91036940746</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y23" t="n">
-        <v>1167.771037431648</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="24">
@@ -6066,10 +6068,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K24" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L24" t="n">
         <v>670.8219208598713</v>
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>138.3857151273827</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="C25" t="n">
-        <v>138.3857151273827</v>
+        <v>331.20325038051</v>
       </c>
       <c r="D25" t="n">
-        <v>138.3857151273827</v>
+        <v>181.0866109681743</v>
       </c>
       <c r="E25" t="n">
-        <v>138.3857151273827</v>
+        <v>181.0866109681743</v>
       </c>
       <c r="F25" t="n">
-        <v>138.3857151273827</v>
+        <v>181.0866109681743</v>
       </c>
       <c r="G25" t="n">
         <v>53.94298182036445</v>
@@ -6169,28 +6171,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>138.3857151273827</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>138.3857151273827</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V25" t="n">
-        <v>138.3857151273827</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W25" t="n">
-        <v>138.3857151273827</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X25" t="n">
-        <v>138.3857151273827</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y25" t="n">
-        <v>138.3857151273827</v>
+        <v>500.1394333084169</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1567.641263708175</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C26" t="n">
-        <v>1198.678746767763</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D26" t="n">
-        <v>840.4130481610125</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E26" t="n">
-        <v>454.6247955627683</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F26" t="n">
-        <v>454.6247955627683</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G26" t="n">
         <v>53.94298182036445</v>
@@ -6230,7 +6232,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6263,13 +6265,13 @@
         <v>2697.149091018222</v>
       </c>
       <c r="W26" t="n">
-        <v>2344.380435748108</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X26" t="n">
-        <v>2344.380435748108</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y26" t="n">
-        <v>1954.241103772296</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="27">
@@ -6303,7 +6305,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
         <v>266.2060027641994</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>210.7222632714563</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C28" t="n">
-        <v>210.7222632714563</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D28" t="n">
-        <v>210.7222632714563</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E28" t="n">
-        <v>210.7222632714563</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F28" t="n">
-        <v>63.8323157735459</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G28" t="n">
-        <v>63.8323157735459</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
         <v>53.94298182036445</v>
@@ -6409,25 +6411,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="V28" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W28" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X28" t="n">
-        <v>210.7222632714563</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y28" t="n">
-        <v>210.7222632714563</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1546.94416071721</v>
+        <v>920.3919303875161</v>
       </c>
       <c r="C29" t="n">
-        <v>1177.981643776798</v>
+        <v>920.3919303875161</v>
       </c>
       <c r="D29" t="n">
-        <v>819.7159451700475</v>
+        <v>920.3919303875161</v>
       </c>
       <c r="E29" t="n">
-        <v>433.9276925718032</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F29" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018223</v>
+        <v>2618.050856688311</v>
       </c>
       <c r="U29" t="n">
-        <v>2697.149091018223</v>
+        <v>2364.289071326402</v>
       </c>
       <c r="V29" t="n">
-        <v>2697.149091018223</v>
+        <v>2033.226183982832</v>
       </c>
       <c r="W29" t="n">
-        <v>2697.149091018223</v>
+        <v>1680.457528712718</v>
       </c>
       <c r="X29" t="n">
-        <v>2323.683332757143</v>
+        <v>1306.991770451638</v>
       </c>
       <c r="Y29" t="n">
-        <v>1933.544000781331</v>
+        <v>1306.991770451638</v>
       </c>
     </row>
     <row r="30">
@@ -6516,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036469</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N30" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018223</v>
@@ -6585,7 +6587,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y30" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2140.045780290769</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C31" t="n">
-        <v>2140.045780290769</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D31" t="n">
-        <v>2140.045780290769</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E31" t="n">
-        <v>2140.045780290769</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F31" t="n">
-        <v>2140.045780290769</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>2206.83913925958</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>2351.73700797761</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>2549.002432452407</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>2549.002432452407</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>2321.694245121009</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>2321.694245121009</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="V31" t="n">
-        <v>2321.694245121009</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="W31" t="n">
-        <v>2321.694245121009</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="X31" t="n">
-        <v>2321.694245121009</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y31" t="n">
-        <v>2321.694245121009</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1971.274048960885</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C32" t="n">
-        <v>1971.274048960885</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D32" t="n">
-        <v>1749.341643278937</v>
+        <v>819.715945170047</v>
       </c>
       <c r="E32" t="n">
-        <v>1363.553390680693</v>
+        <v>433.9276925718028</v>
       </c>
       <c r="F32" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G32" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533144</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T32" t="n">
-        <v>2302.336936304456</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U32" t="n">
-        <v>2302.336936304456</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V32" t="n">
-        <v>1971.274048960885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W32" t="n">
-        <v>1971.274048960885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X32" t="n">
-        <v>1971.274048960885</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y32" t="n">
-        <v>1971.274048960885</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="33">
@@ -6774,22 +6776,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O33" t="n">
         <v>2188.831293537797</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2515.500626187983</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="C34" t="n">
-        <v>2346.564443260076</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="D34" t="n">
-        <v>2196.44780384774</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="E34" t="n">
-        <v>2048.534710265347</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="F34" t="n">
-        <v>2022.963088632153</v>
+        <v>517.0200655508537</v>
       </c>
       <c r="G34" t="n">
-        <v>2022.963088632153</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H34" t="n">
-        <v>2022.963088632153</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.83913925958</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.73700797761</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018223</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.149091018223</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T34" t="n">
-        <v>2697.149091018223</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U34" t="n">
-        <v>2697.149091018223</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V34" t="n">
-        <v>2697.149091018223</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W34" t="n">
-        <v>2697.149091018223</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X34" t="n">
-        <v>2697.149091018223</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="Y34" t="n">
-        <v>2697.149091018223</v>
+        <v>579.9823256406182</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>833.8914035503838</v>
+        <v>1249.712458167646</v>
       </c>
       <c r="C35" t="n">
-        <v>464.928886609972</v>
+        <v>880.7499412272343</v>
       </c>
       <c r="D35" t="n">
-        <v>464.928886609972</v>
+        <v>880.7499412272343</v>
       </c>
       <c r="E35" t="n">
-        <v>464.928886609972</v>
+        <v>880.7499412272343</v>
       </c>
       <c r="F35" t="n">
-        <v>53.94298182036446</v>
+        <v>880.7499412272343</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036446</v>
+        <v>462.7861331254212</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036446</v>
+        <v>135.591413161424</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
         <v>881.2824271224076</v>
@@ -6947,40 +6949,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T35" t="n">
-        <v>2667.927876465082</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U35" t="n">
-        <v>2667.927876465082</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V35" t="n">
-        <v>2336.864989121511</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W35" t="n">
-        <v>1984.096333851397</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X35" t="n">
-        <v>1610.630575590317</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y35" t="n">
-        <v>1220.491243614505</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7013,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P36" t="n">
         <v>2525.076107152626</v>
@@ -7069,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2342.015910972396</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C37" t="n">
-        <v>2173.079728044489</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D37" t="n">
         <v>2022.963088632153</v>
@@ -7099,46 +7101,46 @@
         <v>2079.265281698421</v>
       </c>
       <c r="L37" t="n">
-        <v>2206.83913925958</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M37" t="n">
-        <v>2351.73700797761</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N37" t="n">
-        <v>2498.624145662039</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O37" t="n">
-        <v>2618.281896171279</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P37" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q37" t="n">
-        <v>2667.732171871845</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R37" t="n">
-        <v>2519.585513306029</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S37" t="n">
-        <v>2342.015910972396</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T37" t="n">
-        <v>2342.015910972396</v>
+        <v>2540.369809567131</v>
       </c>
       <c r="U37" t="n">
-        <v>2342.015910972396</v>
+        <v>2540.369809567131</v>
       </c>
       <c r="V37" t="n">
-        <v>2342.015910972396</v>
+        <v>2540.369809567131</v>
       </c>
       <c r="W37" t="n">
-        <v>2342.015910972396</v>
+        <v>2250.95263953017</v>
       </c>
       <c r="X37" t="n">
-        <v>2342.015910972396</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y37" t="n">
-        <v>2342.015910972396</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="38">
@@ -7148,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>781.1711973675267</v>
+        <v>2310.5492509541</v>
       </c>
       <c r="C38" t="n">
-        <v>412.208680427115</v>
+        <v>1941.586734013689</v>
       </c>
       <c r="D38" t="n">
-        <v>53.94298182036446</v>
+        <v>1583.321035406938</v>
       </c>
       <c r="E38" t="n">
-        <v>53.94298182036446</v>
+        <v>1197.532782808694</v>
       </c>
       <c r="F38" t="n">
-        <v>53.94298182036446</v>
+        <v>786.5468780190865</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036446</v>
+        <v>368.5830699172734</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7205,19 +7207,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U38" t="n">
-        <v>2615.207670282225</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V38" t="n">
-        <v>2284.144782938654</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W38" t="n">
-        <v>1931.37612766854</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X38" t="n">
-        <v>1557.91036940746</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y38" t="n">
-        <v>1167.771037431648</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7250,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L39" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M39" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N39" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018223</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K40" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L40" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M40" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N40" t="n">
-        <v>529.60403885025</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594902</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064343</v>
+        <v>2539.444886308983</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064343</v>
+        <v>2312.136698977585</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064343</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="V40" t="n">
-        <v>571.3497027553424</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="W40" t="n">
-        <v>281.9325327183818</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="41">
@@ -7385,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1546.94416071721</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C41" t="n">
-        <v>1268.68094731003</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D41" t="n">
-        <v>1268.68094731003</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E41" t="n">
-        <v>882.8926947117852</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F41" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
         <v>463.9616490733126</v>
@@ -7430,31 +7432,31 @@
         <v>2544.691559791252</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018223</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018223</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V41" t="n">
-        <v>2697.149091018223</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W41" t="n">
-        <v>2697.149091018223</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="X41" t="n">
-        <v>2323.683332757143</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="Y41" t="n">
-        <v>1933.544000781331</v>
+        <v>1964.5451948195</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7487,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018223</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="C43" t="n">
-        <v>559.1928012785274</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="D43" t="n">
-        <v>409.0761618661917</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="E43" t="n">
-        <v>261.1630682837986</v>
+        <v>2549.235997435829</v>
       </c>
       <c r="F43" t="n">
-        <v>222.942782082032</v>
+        <v>2402.346049937919</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036446</v>
+        <v>2233.346249676251</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036446</v>
+        <v>2075.597877108782</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K43" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L43" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M43" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N43" t="n">
-        <v>529.60403885025</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594902</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T43" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U43" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V43" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W43" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X43" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y43" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="44">
@@ -7622,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1192.157102157134</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C44" t="n">
-        <v>823.1945852167225</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D44" t="n">
-        <v>464.928886609972</v>
+        <v>819.715945170047</v>
       </c>
       <c r="E44" t="n">
-        <v>464.928886609972</v>
+        <v>433.9276925718028</v>
       </c>
       <c r="F44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
@@ -7667,31 +7669,31 @@
         <v>2544.691559791252</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2673.424919801718</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S44" t="n">
-        <v>2673.424919801718</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T44" t="n">
-        <v>2673.424919801718</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U44" t="n">
-        <v>2673.424919801718</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V44" t="n">
-        <v>2342.362032458147</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W44" t="n">
-        <v>2342.362032458147</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X44" t="n">
-        <v>1968.896274197068</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y44" t="n">
-        <v>1578.756942221256</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="45">
@@ -7701,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M45" t="n">
         <v>1194.968834417902</v>
@@ -7770,7 +7772,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y45" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036446</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036446</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036446</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036446</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036446</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036446</v>
+        <v>196.6941021971136</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M46" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N46" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064343</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S46" t="n">
-        <v>513.840561024597</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="T46" t="n">
-        <v>513.840561024597</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="U46" t="n">
-        <v>513.840561024597</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="V46" t="n">
-        <v>513.840561024597</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="W46" t="n">
-        <v>513.840561024597</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="X46" t="n">
-        <v>285.8510101265797</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="Y46" t="n">
-        <v>65.05843098304959</v>
+        <v>365.6939024587812</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,10 +8306,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8529,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
@@ -8766,16 +8768,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -9003,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9021,10 +9023,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q15" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142015</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9495,7 +9497,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9714,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L24" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9951,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>221.0467526719084</v>
+        <v>145.0294169142015</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -10188,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142015</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10425,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10440,7 +10442,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783523</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10662,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10680,7 +10682,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10899,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142015</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11078,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599052</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11157,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11315,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599052</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050818</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -22544,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>35.61419889577297</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22556,16 +22558,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,25 +22594,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>32.66198001746608</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22711,19 +22713,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890128</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22747,19 +22749,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>277.0062774114808</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22784,25 +22786,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>231.5186219520227</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>36.34344014469343</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,7 +22831,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -22847,7 +22849,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22945,13 +22947,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>128.0571403890127</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>141.7069916148868</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -22960,7 +22962,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22984,7 +22986,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -23021,13 +23023,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>222.9406308268525</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -23066,7 +23068,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -23078,7 +23080,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>260.7615551004097</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23176,19 +23178,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>120.1051426060689</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -23197,10 +23199,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23221,19 +23223,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>247.8835274565667</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23255,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>30.22198880999338</v>
+        <v>27.24413781697879</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
@@ -23318,13 +23320,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23434,10 +23436,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>56.01837628787186</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>231.8063182229441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23492,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>303.7774505705572</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23504,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>125.9831076351825</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23671,10 +23673,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>56.01837628787186</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.0062774114811</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23729,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>97.36773175088405</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23744,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>12.42908554841694</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23777,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23908,10 +23910,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J19" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R19" t="n">
         <v>146.6651919801579</v>
@@ -23944,7 +23946,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>89.8011526503046</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23966,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23981,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>220.1790655508314</v>
       </c>
       <c r="H20" t="n">
-        <v>12.42908554841733</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24014,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24142,13 +24144,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>60.8730126800275</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J22" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,19 +24171,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R22" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>56.0183762878722</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24209,16 +24211,16 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24251,22 +24253,22 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>135.3263138290204</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24364,10 +24366,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,16 +24378,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>83.71149628510288</v>
+        <v>41.43760940271922</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,16 +24408,16 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
         <v>286.2818742419777</v>
@@ -24427,7 +24429,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24443,19 +24445,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>89.79231049789979</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>17.10917441581523</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -24488,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -24503,10 +24505,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24610,19 +24612,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>146.3804482281455</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,28 +24645,28 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R28" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>21.87414536972213</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24680,25 +24682,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>30.69118209778713</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>138.1410683710454</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24850,16 +24852,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>51.39793751702142</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,19 +24882,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>11.8571895278568</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24901,7 +24903,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24914,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>134.9699599955544</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>30.69118209778748</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25072,31 +25074,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>120.1051426060693</v>
+        <v>83.08841053406437</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,10 +25119,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25163,16 +25165,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>71.09936921721226</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,13 +25201,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>187.5193179500485</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
         <v>251.2241675082893</v>
@@ -25312,10 +25314,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25330,10 +25332,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,16 +25356,16 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
-        <v>36.35163263972208</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>69.82361682150349</v>
       </c>
       <c r="U37" t="n">
         <v>286.2818742419777</v>
@@ -25372,10 +25374,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25397,16 +25399,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>12.42908554841733</v>
       </c>
       <c r="I38" t="n">
         <v>151.9313162448613</v>
@@ -25436,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -25445,19 +25447,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>170.102160979652</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25567,10 +25569,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,28 +25593,28 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R40" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>56.0183762878722</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>96.92615468724699</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25628,10 +25630,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>89.79231049789934</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25640,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25673,13 +25675,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.2241675082893</v>
@@ -25691,7 +25693,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>247.1395024554453</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25786,28 +25788,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>107.5829646831824</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923382</v>
+        <v>82.85718120047582</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801579</v>
@@ -25871,10 +25873,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>30.69118209778748</v>
       </c>
       <c r="G44" t="n">
         <v>413.784170020795</v>
@@ -25910,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>30.99147307047216</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
@@ -25922,7 +25924,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>168.827685510879</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26035,16 +26037,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>156.1708888417951</v>
+        <v>14.84727966881351</v>
       </c>
       <c r="I46" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26086,10 +26088,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>740597.3441099979</v>
+        <v>740597.3441099977</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>740597.3441099979</v>
+        <v>740597.3441099976</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>740597.3441099979</v>
+        <v>740597.3441099977</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>740597.3441099979</v>
+        <v>740597.3441099977</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>740597.3441099977</v>
+        <v>740597.3441099976</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>740597.3441099976</v>
+        <v>740597.3441099979</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>740597.3441099979</v>
+        <v>740597.3441099977</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>740597.344109998</v>
+        <v>740597.3441099979</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>289152.6100157575</v>
+        <v>289152.6100157576</v>
       </c>
       <c r="C2" t="n">
         <v>289152.6100157575</v>
       </c>
       <c r="D2" t="n">
-        <v>289152.6100157576</v>
+        <v>289152.6100157574</v>
       </c>
       <c r="E2" t="n">
         <v>289152.6100157576</v>
       </c>
       <c r="F2" t="n">
-        <v>289152.6100157576</v>
+        <v>289152.6100157573</v>
       </c>
       <c r="G2" t="n">
         <v>289152.6100157574</v>
@@ -26335,19 +26337,19 @@
         <v>289152.6100157576</v>
       </c>
       <c r="J2" t="n">
-        <v>289152.6100157576</v>
+        <v>289152.6100157574</v>
       </c>
       <c r="K2" t="n">
-        <v>289152.6100157575</v>
+        <v>289152.6100157574</v>
       </c>
       <c r="L2" t="n">
         <v>289152.6100157574</v>
       </c>
       <c r="M2" t="n">
-        <v>289152.6100157576</v>
+        <v>289152.6100157573</v>
       </c>
       <c r="N2" t="n">
-        <v>289152.6100157576</v>
+        <v>289152.6100157573</v>
       </c>
       <c r="O2" t="n">
         <v>289152.6100157577</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26482,7 +26484,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="G5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
         <v>49231.47806340946</v>
@@ -26494,22 +26496,22 @@
         <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
     </row>
     <row r="6">
@@ -26519,19 +26521,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-401903.2748318597</v>
+        <v>-401903.2748318596</v>
       </c>
       <c r="C6" t="n">
         <v>188064.6043826848</v>
       </c>
       <c r="D6" t="n">
-        <v>188064.6043826848</v>
+        <v>188064.6043826847</v>
       </c>
       <c r="E6" t="n">
-        <v>221692.2043826848</v>
+        <v>221692.2043826849</v>
       </c>
       <c r="F6" t="n">
-        <v>221692.2043826849</v>
+        <v>221692.2043826846</v>
       </c>
       <c r="G6" t="n">
         <v>221692.2043826847</v>
@@ -26543,25 +26545,25 @@
         <v>221692.2043826849</v>
       </c>
       <c r="J6" t="n">
-        <v>45268.98519009195</v>
+        <v>45268.9851900917</v>
       </c>
       <c r="K6" t="n">
-        <v>221692.2043826848</v>
+        <v>221692.2043826847</v>
       </c>
       <c r="L6" t="n">
         <v>221692.2043826847</v>
       </c>
       <c r="M6" t="n">
-        <v>221692.2043826849</v>
+        <v>221692.2043826846</v>
       </c>
       <c r="N6" t="n">
-        <v>221692.2043826848</v>
+        <v>221692.2043826846</v>
       </c>
       <c r="O6" t="n">
         <v>221692.204382685</v>
       </c>
       <c r="P6" t="n">
-        <v>221692.2043826848</v>
+        <v>221692.2043826849</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26777,7 +26779,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
     </row>
     <row r="4">
@@ -26802,7 +26804,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
         <v>674.2872727545556</v>
@@ -26814,22 +26816,22 @@
         <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
     </row>
   </sheetData>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -31039,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,13 +31752,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
@@ -31774,22 +31776,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q11" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S11" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I12" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31862,16 +31864,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T12" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J13" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31932,13 +31934,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R13" t="n">
         <v>30.62819939701163</v>
@@ -31947,7 +31949,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U13" t="n">
         <v>0.0371551145131561</v>
@@ -31987,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
@@ -32011,22 +32013,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S14" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I15" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32099,16 +32101,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T15" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J16" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32169,13 +32171,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R16" t="n">
         <v>30.62819939701163</v>
@@ -32184,7 +32186,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U16" t="n">
         <v>0.0371551145131561</v>
@@ -32224,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
@@ -32248,22 +32250,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q17" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S17" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32303,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I18" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32336,16 +32338,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T18" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J19" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32406,13 +32408,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R19" t="n">
         <v>30.62819939701163</v>
@@ -32421,7 +32423,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U19" t="n">
         <v>0.0371551145131561</v>
@@ -32461,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
@@ -32485,22 +32487,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q20" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S20" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32540,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I21" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32573,16 +32575,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S21" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T21" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J22" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
@@ -32643,13 +32645,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R22" t="n">
         <v>30.62819939701163</v>
@@ -32658,7 +32660,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U22" t="n">
         <v>0.0371551145131561</v>
@@ -32698,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H23" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
@@ -32722,22 +32724,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P23" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q23" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S23" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32777,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I24" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32810,16 +32812,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S24" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T24" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I25" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J25" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
@@ -32880,13 +32882,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R25" t="n">
         <v>30.62819939701163</v>
@@ -32895,7 +32897,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U25" t="n">
         <v>0.0371551145131561</v>
@@ -32935,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H26" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
@@ -32959,22 +32961,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q26" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S26" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33014,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I27" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33047,16 +33049,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S27" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T27" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I28" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J28" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
@@ -33117,13 +33119,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R28" t="n">
         <v>30.62819939701163</v>
@@ -33132,7 +33134,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U28" t="n">
         <v>0.0371551145131561</v>
@@ -33172,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H29" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
@@ -33196,22 +33198,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P29" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q29" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S29" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33251,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I30" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33284,16 +33286,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S30" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T30" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I31" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J31" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33354,13 +33356,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R31" t="n">
         <v>30.62819939701163</v>
@@ -33369,7 +33371,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U31" t="n">
         <v>0.0371551145131561</v>
@@ -33409,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
@@ -33433,22 +33435,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q32" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S32" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33488,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I33" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33521,16 +33523,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T33" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J34" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33591,13 +33593,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R34" t="n">
         <v>30.62819939701163</v>
@@ -33606,7 +33608,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U34" t="n">
         <v>0.0371551145131561</v>
@@ -33646,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
@@ -33670,22 +33672,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S35" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33725,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I36" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33758,16 +33760,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T36" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J37" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33828,13 +33830,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R37" t="n">
         <v>30.62819939701163</v>
@@ -33843,7 +33845,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -33883,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
@@ -33907,22 +33909,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S38" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33962,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I39" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33995,16 +33997,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T39" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J40" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34065,13 +34067,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R40" t="n">
         <v>30.62819939701163</v>
@@ -34080,7 +34082,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34120,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34144,22 +34146,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34199,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34232,16 +34234,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34302,13 +34304,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34317,7 +34319,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34363,19 +34365,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L44" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N44" t="n">
         <v>270.9617944338304</v>
@@ -34390,13 +34392,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34436,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I45" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34463,22 +34465,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q45" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S45" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I46" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K46" t="n">
         <v>79.14039391302239</v>
@@ -34539,16 +34541,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P46" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
@@ -34696,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34787,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34948,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,10 +35026,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35264,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
         <v>297.2230414343419</v>
@@ -35422,10 +35424,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q11" t="n">
         <v>153.9975062898689</v>
@@ -35486,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P12" t="n">
         <v>339.6412258735646</v>
@@ -35568,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35583,7 +35585,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35659,10 +35661,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q14" t="n">
         <v>153.9975062898689</v>
@@ -35723,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35738,13 +35740,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q15" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35820,7 +35822,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35896,10 +35898,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q17" t="n">
         <v>153.9975062898689</v>
@@ -35960,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K18" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
@@ -35975,13 +35977,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P18" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36057,7 +36059,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36133,10 +36135,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q20" t="n">
         <v>153.9975062898689</v>
@@ -36197,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36212,10 +36214,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P21" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
         <v>173.8110948137341</v>
@@ -36279,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
@@ -36294,7 +36296,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36370,10 +36372,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P23" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q23" t="n">
         <v>153.9975062898689</v>
@@ -36434,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L24" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M24" t="n">
         <v>529.4413268262938</v>
@@ -36449,7 +36451,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P24" t="n">
         <v>339.6412258735646</v>
@@ -36516,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
@@ -36531,7 +36533,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36607,10 +36609,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P26" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q26" t="n">
         <v>153.9975062898689</v>
@@ -36671,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K27" t="n">
-        <v>214.4070918624596</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36686,7 +36688,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P27" t="n">
         <v>339.6412258735646</v>
@@ -36753,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
@@ -36768,7 +36770,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36844,10 +36846,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P29" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q29" t="n">
         <v>153.9975062898689</v>
@@ -36908,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K30" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L30" t="n">
         <v>408.7029475713857</v>
@@ -36923,13 +36925,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P30" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
@@ -37005,7 +37007,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.9372285181313</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K32" t="n">
         <v>297.2230414343419</v>
@@ -37081,10 +37083,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q32" t="n">
         <v>153.9975062898689</v>
@@ -37145,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K33" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37160,7 +37162,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P33" t="n">
         <v>339.6412258735646</v>
@@ -37227,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37242,7 +37244,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37318,10 +37320,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q35" t="n">
         <v>153.9975062898689</v>
@@ -37382,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K36" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37397,10 +37399,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q36" t="n">
         <v>173.8110948137341</v>
@@ -37464,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37479,7 +37481,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37555,10 +37557,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q38" t="n">
         <v>153.9975062898689</v>
@@ -37619,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K39" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L39" t="n">
         <v>408.7029475713857</v>
@@ -37634,13 +37636,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37716,7 +37718,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37792,13 +37794,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.9975062898695</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K42" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37871,13 +37873,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37953,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K44" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O44" t="n">
         <v>406.5635087530452</v>
@@ -38035,7 +38037,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.9975062898695</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K45" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L45" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M45" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q45" t="n">
         <v>173.8110948137341</v>
